--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
@@ -238,9 +238,6 @@
     <t>3E</t>
   </si>
   <si>
-    <t>Libor</t>
-  </si>
-  <si>
     <t>0D</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>Hibor</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D8" s="12" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -1252,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -1300,7 +1300,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"ibor,Libor"</formula1>
+      <formula1>"ibor,Libor,Hibor"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1>"EUR,USD,GBP,JPY,CHF,HKD,CHY,AUD,PLN,HUF"</formula1>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I3" s="45" t="str">
         <f t="shared" ref="I3:I36" si="6">PROPER(Currency)&amp;FamilyName&amp;"Swap"&amp;FixingType&amp;$B3</f>
-        <v>HkdLiborSwapForBasisCalc1Y</v>
+        <v>HkdHiborSwapForBasisCalc1Y</v>
       </c>
       <c r="J3" s="19" t="str">
         <f t="shared" ref="J3:J36" si="7">Currency&amp;$C3&amp;$D3&amp;$B3&amp;"_"&amp;"Fwd"&amp;E3&amp;IF(H3=0,,"_Spr"&amp;$F3&amp;$G3)&amp;QuoteSuffix</f>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc2Y</v>
+        <v>HkdHiborSwapForBasisCalc2Y</v>
       </c>
       <c r="J4" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc3Y</v>
+        <v>HkdHiborSwapForBasisCalc3Y</v>
       </c>
       <c r="J5" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc4Y</v>
+        <v>HkdHiborSwapForBasisCalc4Y</v>
       </c>
       <c r="J6" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc5Y</v>
+        <v>HkdHiborSwapForBasisCalc5Y</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc6Y</v>
+        <v>HkdHiborSwapForBasisCalc6Y</v>
       </c>
       <c r="J8" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc7Y</v>
+        <v>HkdHiborSwapForBasisCalc7Y</v>
       </c>
       <c r="J9" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc8Y</v>
+        <v>HkdHiborSwapForBasisCalc8Y</v>
       </c>
       <c r="J10" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc9Y</v>
+        <v>HkdHiborSwapForBasisCalc9Y</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc10Y</v>
+        <v>HkdHiborSwapForBasisCalc10Y</v>
       </c>
       <c r="J12" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="I13" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc11Y</v>
+        <v>HkdHiborSwapForBasisCalc11Y</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="7"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="I14" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc12Y</v>
+        <v>HkdHiborSwapForBasisCalc12Y</v>
       </c>
       <c r="J14" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc13Y</v>
+        <v>HkdHiborSwapForBasisCalc13Y</v>
       </c>
       <c r="J15" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc14Y</v>
+        <v>HkdHiborSwapForBasisCalc14Y</v>
       </c>
       <c r="J16" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc15Y</v>
+        <v>HkdHiborSwapForBasisCalc15Y</v>
       </c>
       <c r="J17" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc16Y</v>
+        <v>HkdHiborSwapForBasisCalc16Y</v>
       </c>
       <c r="J18" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc17Y</v>
+        <v>HkdHiborSwapForBasisCalc17Y</v>
       </c>
       <c r="J19" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="I20" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc18Y</v>
+        <v>HkdHiborSwapForBasisCalc18Y</v>
       </c>
       <c r="J20" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="I21" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc19Y</v>
+        <v>HkdHiborSwapForBasisCalc19Y</v>
       </c>
       <c r="J21" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="I22" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc20Y</v>
+        <v>HkdHiborSwapForBasisCalc20Y</v>
       </c>
       <c r="J22" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I23" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc21Y</v>
+        <v>HkdHiborSwapForBasisCalc21Y</v>
       </c>
       <c r="J23" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="I24" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc22Y</v>
+        <v>HkdHiborSwapForBasisCalc22Y</v>
       </c>
       <c r="J24" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I25" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc23Y</v>
+        <v>HkdHiborSwapForBasisCalc23Y</v>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I26" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc24Y</v>
+        <v>HkdHiborSwapForBasisCalc24Y</v>
       </c>
       <c r="J26" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="I27" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc25Y</v>
+        <v>HkdHiborSwapForBasisCalc25Y</v>
       </c>
       <c r="J27" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I28" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc26Y</v>
+        <v>HkdHiborSwapForBasisCalc26Y</v>
       </c>
       <c r="J28" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="I29" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc27Y</v>
+        <v>HkdHiborSwapForBasisCalc27Y</v>
       </c>
       <c r="J29" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="I30" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc28Y</v>
+        <v>HkdHiborSwapForBasisCalc28Y</v>
       </c>
       <c r="J30" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="I31" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc29Y</v>
+        <v>HkdHiborSwapForBasisCalc29Y</v>
       </c>
       <c r="J31" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I32" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc30Y</v>
+        <v>HkdHiborSwapForBasisCalc30Y</v>
       </c>
       <c r="J32" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I33" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc35Y</v>
+        <v>HkdHiborSwapForBasisCalc35Y</v>
       </c>
       <c r="J33" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I34" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc40Y</v>
+        <v>HkdHiborSwapForBasisCalc40Y</v>
       </c>
       <c r="J34" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="I35" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc50Y</v>
+        <v>HkdHiborSwapForBasisCalc50Y</v>
       </c>
       <c r="J35" s="19" t="str">
         <f t="shared" si="7"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="I36" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc60Y</v>
+        <v>HkdHiborSwapForBasisCalc60Y</v>
       </c>
       <c r="J36" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I3" s="45" t="str">
         <f t="shared" ref="I3:I36" si="6">PROPER(Currency)&amp;FamilyName&amp;"Swap"&amp;FixingType&amp;$B3</f>
-        <v>HkdLiborSwapForBasisCalc1Y</v>
+        <v>HkdHiborSwapForBasisCalc1Y</v>
       </c>
       <c r="J3" s="19" t="str">
         <f t="shared" ref="J3:J36" si="7">Currency&amp;$C3&amp;$D3&amp;$B3&amp;"_"&amp;"Fwd"&amp;E3&amp;IF(H3=0,,"_S"&amp;$F3&amp;$G3)&amp;QuoteSuffix</f>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc2Y</v>
+        <v>HkdHiborSwapForBasisCalc2Y</v>
       </c>
       <c r="J4" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc3Y</v>
+        <v>HkdHiborSwapForBasisCalc3Y</v>
       </c>
       <c r="J5" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc4Y</v>
+        <v>HkdHiborSwapForBasisCalc4Y</v>
       </c>
       <c r="J6" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc5Y</v>
+        <v>HkdHiborSwapForBasisCalc5Y</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc6Y</v>
+        <v>HkdHiborSwapForBasisCalc6Y</v>
       </c>
       <c r="J8" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc7Y</v>
+        <v>HkdHiborSwapForBasisCalc7Y</v>
       </c>
       <c r="J9" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc8Y</v>
+        <v>HkdHiborSwapForBasisCalc8Y</v>
       </c>
       <c r="J10" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc9Y</v>
+        <v>HkdHiborSwapForBasisCalc9Y</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc10Y</v>
+        <v>HkdHiborSwapForBasisCalc10Y</v>
       </c>
       <c r="J12" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I13" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc11Y</v>
+        <v>HkdHiborSwapForBasisCalc11Y</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="I14" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc12Y</v>
+        <v>HkdHiborSwapForBasisCalc12Y</v>
       </c>
       <c r="J14" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc13Y</v>
+        <v>HkdHiborSwapForBasisCalc13Y</v>
       </c>
       <c r="J15" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc14Y</v>
+        <v>HkdHiborSwapForBasisCalc14Y</v>
       </c>
       <c r="J16" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc15Y</v>
+        <v>HkdHiborSwapForBasisCalc15Y</v>
       </c>
       <c r="J17" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc16Y</v>
+        <v>HkdHiborSwapForBasisCalc16Y</v>
       </c>
       <c r="J18" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc17Y</v>
+        <v>HkdHiborSwapForBasisCalc17Y</v>
       </c>
       <c r="J19" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="I20" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc18Y</v>
+        <v>HkdHiborSwapForBasisCalc18Y</v>
       </c>
       <c r="J20" s="19" t="str">
         <f t="shared" si="7"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="I21" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc19Y</v>
+        <v>HkdHiborSwapForBasisCalc19Y</v>
       </c>
       <c r="J21" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="I22" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc20Y</v>
+        <v>HkdHiborSwapForBasisCalc20Y</v>
       </c>
       <c r="J22" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="I23" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc21Y</v>
+        <v>HkdHiborSwapForBasisCalc21Y</v>
       </c>
       <c r="J23" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="I24" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc22Y</v>
+        <v>HkdHiborSwapForBasisCalc22Y</v>
       </c>
       <c r="J24" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="I25" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc23Y</v>
+        <v>HkdHiborSwapForBasisCalc23Y</v>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I26" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc24Y</v>
+        <v>HkdHiborSwapForBasisCalc24Y</v>
       </c>
       <c r="J26" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="I27" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc25Y</v>
+        <v>HkdHiborSwapForBasisCalc25Y</v>
       </c>
       <c r="J27" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="I28" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc26Y</v>
+        <v>HkdHiborSwapForBasisCalc26Y</v>
       </c>
       <c r="J28" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="I29" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc27Y</v>
+        <v>HkdHiborSwapForBasisCalc27Y</v>
       </c>
       <c r="J29" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="I30" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc28Y</v>
+        <v>HkdHiborSwapForBasisCalc28Y</v>
       </c>
       <c r="J30" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="I31" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc29Y</v>
+        <v>HkdHiborSwapForBasisCalc29Y</v>
       </c>
       <c r="J31" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="I32" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc30Y</v>
+        <v>HkdHiborSwapForBasisCalc30Y</v>
       </c>
       <c r="J32" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="I33" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc35Y</v>
+        <v>HkdHiborSwapForBasisCalc35Y</v>
       </c>
       <c r="J33" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="I34" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc40Y</v>
+        <v>HkdHiborSwapForBasisCalc40Y</v>
       </c>
       <c r="J34" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I35" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc50Y</v>
+        <v>HkdHiborSwapForBasisCalc50Y</v>
       </c>
       <c r="J35" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="I36" s="23" t="str">
         <f t="shared" si="6"/>
-        <v>HkdLiborSwapForBasisCalc60Y</v>
+        <v>HkdHiborSwapForBasisCalc60Y</v>
       </c>
       <c r="J36" s="19" t="str">
         <f t="shared" si="7"/>
@@ -4752,7 +4752,7 @@
         <v>3L</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F36" si="2">VLOOKUP(Currency,$O$3:$T$7,5)</f>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="I3" s="45" t="str">
         <f t="shared" ref="I3:I36" si="5">PROPER(Currency)&amp;FamilyName&amp;"Swap"&amp;FixingType&amp;$B3</f>
-        <v>HkdLiborSwapForBasisCalc1Y</v>
+        <v>HkdHiborSwapForBasisCalc1Y</v>
       </c>
       <c r="J3" s="19" t="str">
         <f t="shared" ref="J3:J36" si="6">Currency&amp;$C3&amp;$D3&amp;$B3&amp;IF(H3=0,,"_S"&amp;$F3&amp;$G3)&amp;QuoteSuffix</f>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc1Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc2Y</v>
+        <v>HkdHiborSwapForBasisCalc2Y</v>
       </c>
       <c r="J4" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc2Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc3Y</v>
+        <v>HkdHiborSwapForBasisCalc3Y</v>
       </c>
       <c r="J5" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc3Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc4Y</v>
+        <v>HkdHiborSwapForBasisCalc4Y</v>
       </c>
       <c r="J6" s="19" t="str">
         <f t="shared" si="6"/>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc4Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc5Y</v>
+        <v>HkdHiborSwapForBasisCalc5Y</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc5Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc6Y</v>
+        <v>HkdHiborSwapForBasisCalc6Y</v>
       </c>
       <c r="J8" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc6Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc7Y</v>
+        <v>HkdHiborSwapForBasisCalc7Y</v>
       </c>
       <c r="J9" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc7Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc8Y</v>
+        <v>HkdHiborSwapForBasisCalc8Y</v>
       </c>
       <c r="J10" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc8Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc9Y</v>
+        <v>HkdHiborSwapForBasisCalc9Y</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc9Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc10Y</v>
+        <v>HkdHiborSwapForBasisCalc10Y</v>
       </c>
       <c r="J12" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc10Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="I13" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc11Y</v>
+        <v>HkdHiborSwapForBasisCalc11Y</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc11Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="I14" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc12Y</v>
+        <v>HkdHiborSwapForBasisCalc12Y</v>
       </c>
       <c r="J14" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc12Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc13Y</v>
+        <v>HkdHiborSwapForBasisCalc13Y</v>
       </c>
       <c r="J15" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc13Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc14Y</v>
+        <v>HkdHiborSwapForBasisCalc14Y</v>
       </c>
       <c r="J16" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc14Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc15Y</v>
+        <v>HkdHiborSwapForBasisCalc15Y</v>
       </c>
       <c r="J17" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc15Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc16Y</v>
+        <v>HkdHiborSwapForBasisCalc16Y</v>
       </c>
       <c r="J18" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc16Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc17Y</v>
+        <v>HkdHiborSwapForBasisCalc17Y</v>
       </c>
       <c r="J19" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc17Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="I20" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc18Y</v>
+        <v>HkdHiborSwapForBasisCalc18Y</v>
       </c>
       <c r="J20" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc18Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="I21" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc19Y</v>
+        <v>HkdHiborSwapForBasisCalc19Y</v>
       </c>
       <c r="J21" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc19Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="I22" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc20Y</v>
+        <v>HkdHiborSwapForBasisCalc20Y</v>
       </c>
       <c r="J22" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc20Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="I23" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc21Y</v>
+        <v>HkdHiborSwapForBasisCalc21Y</v>
       </c>
       <c r="J23" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc21Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc22Y</v>
+        <v>HkdHiborSwapForBasisCalc22Y</v>
       </c>
       <c r="J24" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc22Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="I25" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc23Y</v>
+        <v>HkdHiborSwapForBasisCalc23Y</v>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc23Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="I26" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc24Y</v>
+        <v>HkdHiborSwapForBasisCalc24Y</v>
       </c>
       <c r="J26" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc24Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="I27" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc25Y</v>
+        <v>HkdHiborSwapForBasisCalc25Y</v>
       </c>
       <c r="J27" s="19" t="str">
         <f t="shared" si="6"/>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc25Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I28" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc26Y</v>
+        <v>HkdHiborSwapForBasisCalc26Y</v>
       </c>
       <c r="J28" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc26Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I29" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc27Y</v>
+        <v>HkdHiborSwapForBasisCalc27Y</v>
       </c>
       <c r="J29" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc27Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="I30" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc28Y</v>
+        <v>HkdHiborSwapForBasisCalc28Y</v>
       </c>
       <c r="J30" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc28Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I31" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc29Y</v>
+        <v>HkdHiborSwapForBasisCalc29Y</v>
       </c>
       <c r="J31" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc29Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="I32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc30Y</v>
+        <v>HkdHiborSwapForBasisCalc30Y</v>
       </c>
       <c r="J32" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc30Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="I33" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc35Y</v>
+        <v>HkdHiborSwapForBasisCalc35Y</v>
       </c>
       <c r="J33" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc35Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I34" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc40Y</v>
+        <v>HkdHiborSwapForBasisCalc40Y</v>
       </c>
       <c r="J34" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc40Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="I35" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc50Y</v>
+        <v>HkdHiborSwapForBasisCalc50Y</v>
       </c>
       <c r="J35" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc50Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I36" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc60Y</v>
+        <v>HkdHiborSwapForBasisCalc60Y</v>
       </c>
       <c r="J36" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc60Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
       </c>
       <c r="M36" s="36"/>
     </row>
@@ -6533,7 +6533,7 @@
         <v>6L</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F36" si="2">VLOOKUP(Currency,$O$3:$T$7,5)</f>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I3" s="45" t="str">
         <f t="shared" ref="I3:I36" si="5">PROPER(Currency)&amp;FamilyName&amp;"Swap"&amp;FixingType&amp;$B3</f>
-        <v>HkdLiborSwapForBasisCalc1Y</v>
+        <v>HkdHiborSwapForBasisCalc1Y</v>
       </c>
       <c r="J3" s="19" t="str">
         <f t="shared" ref="J3:J36" si="6">Currency&amp;$C3&amp;$D3&amp;$B3&amp;IF(H3=0,,"_S"&amp;$F3&amp;$G3)&amp;QuoteSuffix</f>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc1Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc2Y</v>
+        <v>HkdHiborSwapForBasisCalc2Y</v>
       </c>
       <c r="J4" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc2Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc3Y</v>
+        <v>HkdHiborSwapForBasisCalc3Y</v>
       </c>
       <c r="J5" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc3Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc4Y</v>
+        <v>HkdHiborSwapForBasisCalc4Y</v>
       </c>
       <c r="J6" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc4Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc5Y</v>
+        <v>HkdHiborSwapForBasisCalc5Y</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc5Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc6Y</v>
+        <v>HkdHiborSwapForBasisCalc6Y</v>
       </c>
       <c r="J8" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc6Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc7Y</v>
+        <v>HkdHiborSwapForBasisCalc7Y</v>
       </c>
       <c r="J9" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc7Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc8Y</v>
+        <v>HkdHiborSwapForBasisCalc8Y</v>
       </c>
       <c r="J10" s="19" t="str">
         <f t="shared" si="6"/>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc8Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc9Y</v>
+        <v>HkdHiborSwapForBasisCalc9Y</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc9Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc10Y</v>
+        <v>HkdHiborSwapForBasisCalc10Y</v>
       </c>
       <c r="J12" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc10Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="I13" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc11Y</v>
+        <v>HkdHiborSwapForBasisCalc11Y</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc11Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="I14" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc12Y</v>
+        <v>HkdHiborSwapForBasisCalc12Y</v>
       </c>
       <c r="J14" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc12Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc13Y</v>
+        <v>HkdHiborSwapForBasisCalc13Y</v>
       </c>
       <c r="J15" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc13Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc14Y</v>
+        <v>HkdHiborSwapForBasisCalc14Y</v>
       </c>
       <c r="J16" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc14Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc15Y</v>
+        <v>HkdHiborSwapForBasisCalc15Y</v>
       </c>
       <c r="J17" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc15Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc16Y</v>
+        <v>HkdHiborSwapForBasisCalc16Y</v>
       </c>
       <c r="J18" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc16Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc17Y</v>
+        <v>HkdHiborSwapForBasisCalc17Y</v>
       </c>
       <c r="J19" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc17Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="I20" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc18Y</v>
+        <v>HkdHiborSwapForBasisCalc18Y</v>
       </c>
       <c r="J20" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc18Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="I21" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc19Y</v>
+        <v>HkdHiborSwapForBasisCalc19Y</v>
       </c>
       <c r="J21" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc19Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="I22" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc20Y</v>
+        <v>HkdHiborSwapForBasisCalc20Y</v>
       </c>
       <c r="J22" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc20Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="I23" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc21Y</v>
+        <v>HkdHiborSwapForBasisCalc21Y</v>
       </c>
       <c r="J23" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc21Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc22Y</v>
+        <v>HkdHiborSwapForBasisCalc22Y</v>
       </c>
       <c r="J24" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc22Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="I25" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc23Y</v>
+        <v>HkdHiborSwapForBasisCalc23Y</v>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc23Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="I26" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc24Y</v>
+        <v>HkdHiborSwapForBasisCalc24Y</v>
       </c>
       <c r="J26" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc24Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="I27" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc25Y</v>
+        <v>HkdHiborSwapForBasisCalc25Y</v>
       </c>
       <c r="J27" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc25Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="I28" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc26Y</v>
+        <v>HkdHiborSwapForBasisCalc26Y</v>
       </c>
       <c r="J28" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc26Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="I29" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc27Y</v>
+        <v>HkdHiborSwapForBasisCalc27Y</v>
       </c>
       <c r="J29" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc27Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="I30" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc28Y</v>
+        <v>HkdHiborSwapForBasisCalc28Y</v>
       </c>
       <c r="J30" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7920,7 +7920,7 @@
       </c>
       <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc28Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="I31" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc29Y</v>
+        <v>HkdHiborSwapForBasisCalc29Y</v>
       </c>
       <c r="J31" s="19" t="str">
         <f t="shared" si="6"/>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc29Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="I32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc30Y</v>
+        <v>HkdHiborSwapForBasisCalc30Y</v>
       </c>
       <c r="J32" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc30Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="I33" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc35Y</v>
+        <v>HkdHiborSwapForBasisCalc35Y</v>
       </c>
       <c r="J33" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc35Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="I34" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc40Y</v>
+        <v>HkdHiborSwapForBasisCalc40Y</v>
       </c>
       <c r="J34" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc40Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I35" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc50Y</v>
+        <v>HkdHiborSwapForBasisCalc50Y</v>
       </c>
       <c r="J35" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc50Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I36" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>HkdLiborSwapForBasisCalc60Y</v>
+        <v>HkdHiborSwapForBasisCalc60Y</v>
       </c>
       <c r="J36" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdLiborSwapForBasisCalc60Y'</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
       </c>
       <c r="M36" s="36"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
@@ -13,9 +13,6 @@
     <sheet name="6M" sheetId="26" r:id="rId4"/>
     <sheet name="1Y" sheetId="24" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -795,22 +792,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1120,7 +1101,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1188,8 +1169,8 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="72">
   <si>
     <t>Currency</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Hibor</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1171,8 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1366,7 +1368,7 @@
       </c>
       <c r="L2" s="28" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3037,7 +3039,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - Object list is empty</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4709,7 +4711,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4761,7 +4763,7 @@
       </c>
       <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
+        <v/>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -4822,7 +4824,7 @@
       </c>
       <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
+        <v/>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -4887,7 +4889,7 @@
       </c>
       <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
+        <v/>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -4948,7 +4950,7 @@
       </c>
       <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
+        <v/>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -5009,7 +5011,7 @@
       </c>
       <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
+        <v/>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -5074,7 +5076,7 @@
       </c>
       <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
+        <v/>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -5121,7 +5123,7 @@
       </c>
       <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
+        <v/>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -5168,7 +5170,7 @@
       </c>
       <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
+        <v/>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -5215,7 +5217,7 @@
       </c>
       <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
+        <v/>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -5262,7 +5264,7 @@
       </c>
       <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
+        <v/>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -5309,7 +5311,7 @@
       </c>
       <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
+        <v/>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -5356,7 +5358,7 @@
       </c>
       <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
+        <v/>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -5403,7 +5405,7 @@
       </c>
       <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
+        <v/>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -5450,7 +5452,7 @@
       </c>
       <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
+        <v/>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -5497,7 +5499,7 @@
       </c>
       <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
+        <v/>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -5544,7 +5546,7 @@
       </c>
       <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
+        <v/>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -5591,7 +5593,7 @@
       </c>
       <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
+        <v/>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -5638,7 +5640,7 @@
       </c>
       <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
+        <v/>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -5685,7 +5687,7 @@
       </c>
       <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
+        <v/>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -5732,7 +5734,7 @@
       </c>
       <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
+        <v/>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -5779,7 +5781,7 @@
       </c>
       <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
+        <v/>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -5826,7 +5828,7 @@
       </c>
       <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
+        <v/>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -5873,7 +5875,7 @@
       </c>
       <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
+        <v/>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -5920,7 +5922,7 @@
       </c>
       <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
+        <v/>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -5967,7 +5969,7 @@
       </c>
       <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
+        <v/>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -6014,7 +6016,7 @@
       </c>
       <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
+        <v/>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -6061,7 +6063,7 @@
       </c>
       <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
+        <v/>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -6108,7 +6110,7 @@
       </c>
       <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
+        <v/>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -6155,7 +6157,7 @@
       </c>
       <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
+        <v/>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -6202,7 +6204,7 @@
       </c>
       <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
+        <v/>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -6249,7 +6251,7 @@
       </c>
       <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
+        <v/>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -6296,7 +6298,7 @@
       </c>
       <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
+        <v/>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -6343,7 +6345,7 @@
       </c>
       <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
+        <v/>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -6390,7 +6392,7 @@
       </c>
       <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
+        <v/>
       </c>
       <c r="M36" s="36"/>
     </row>
@@ -6490,7 +6492,7 @@
       </c>
       <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6542,7 +6544,7 @@
       </c>
       <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
+        <v/>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -6607,7 +6609,7 @@
       </c>
       <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
+        <v/>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -6672,7 +6674,7 @@
       </c>
       <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
+        <v/>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -6737,7 +6739,7 @@
       </c>
       <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
+        <v/>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -6802,7 +6804,7 @@
       </c>
       <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
+        <v/>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -6867,7 +6869,7 @@
       </c>
       <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
+        <v/>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -6914,7 +6916,7 @@
       </c>
       <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
+        <v/>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -6961,7 +6963,7 @@
       </c>
       <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
+        <v/>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -7008,7 +7010,7 @@
       </c>
       <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
+        <v/>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -7055,7 +7057,7 @@
       </c>
       <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
+        <v/>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -7102,7 +7104,7 @@
       </c>
       <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
+        <v/>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -7149,7 +7151,7 @@
       </c>
       <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
+        <v/>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -7196,7 +7198,7 @@
       </c>
       <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
+        <v/>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -7243,7 +7245,7 @@
       </c>
       <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
+        <v/>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -7290,7 +7292,7 @@
       </c>
       <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
+        <v/>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -7337,7 +7339,7 @@
       </c>
       <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
+        <v/>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -7384,7 +7386,7 @@
       </c>
       <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
+        <v/>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -7431,7 +7433,7 @@
       </c>
       <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
+        <v/>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -7478,7 +7480,7 @@
       </c>
       <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
+        <v/>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -7525,7 +7527,7 @@
       </c>
       <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
+        <v/>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -7572,7 +7574,7 @@
       </c>
       <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
+        <v/>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -7619,7 +7621,7 @@
       </c>
       <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
+        <v/>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -7666,7 +7668,7 @@
       </c>
       <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
+        <v/>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -7713,7 +7715,7 @@
       </c>
       <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
+        <v/>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -7760,7 +7762,7 @@
       </c>
       <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
+        <v/>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -7807,7 +7809,7 @@
       </c>
       <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
+        <v/>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -7854,7 +7856,7 @@
       </c>
       <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
+        <v/>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -7901,7 +7903,7 @@
       </c>
       <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
+        <v/>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -7948,7 +7950,7 @@
       </c>
       <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
+        <v/>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -7995,7 +7997,7 @@
       </c>
       <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
+        <v/>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -8042,7 +8044,7 @@
       </c>
       <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
+        <v/>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -8089,7 +8091,7 @@
       </c>
       <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
+        <v/>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -8136,7 +8138,7 @@
       </c>
       <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
+        <v/>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -8183,7 +8185,7 @@
       </c>
       <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
+        <v/>
       </c>
       <c r="M36" s="36"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
   <si>
     <t>Currency</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Hibor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1168,9 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>71</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1363,12 +1361,12 @@
         <v>HKD_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="27" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="28" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="28" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3034,12 +3032,12 @@
         <v>HKD_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4706,12 +4704,12 @@
         <v>HKD_020_SwSB3L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4761,9 +4759,9 @@
         <f>_xll.qlForwardSwapQuote(J3,I3,H3,E3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="30" t="str">
+      <c r="L3" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -4822,9 +4820,9 @@
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L4" s="30" t="str">
+      <c r="L4" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -4887,9 +4885,9 @@
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L5" s="30" t="str">
+      <c r="L5" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -4948,9 +4946,9 @@
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L6" s="30" t="str">
+      <c r="L6" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -5009,9 +5007,9 @@
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L7" s="30" t="str">
+      <c r="L7" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -5074,9 +5072,9 @@
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L8" s="30" t="str">
+      <c r="L8" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -5121,9 +5119,9 @@
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L9" s="30" t="str">
+      <c r="L9" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -5168,9 +5166,9 @@
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="30" t="str">
+      <c r="L10" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -5215,9 +5213,9 @@
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -5262,9 +5260,9 @@
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L12" s="30" t="str">
+      <c r="L12" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -5309,9 +5307,9 @@
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="30" t="str">
+      <c r="L13" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -5356,9 +5354,9 @@
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L14" s="30" t="str">
+      <c r="L14" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -5403,9 +5401,9 @@
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L15" s="30" t="str">
+      <c r="L15" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -5450,9 +5448,9 @@
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="30" t="str">
+      <c r="L16" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -5497,9 +5495,9 @@
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="30" t="str">
+      <c r="L17" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -5544,9 +5542,9 @@
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L18" s="30" t="str">
+      <c r="L18" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -5591,9 +5589,9 @@
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L19" s="30" t="str">
+      <c r="L19" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -5638,9 +5636,9 @@
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -5685,9 +5683,9 @@
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -5732,9 +5730,9 @@
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L22" s="30" t="str">
+      <c r="L22" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -5779,9 +5777,9 @@
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="30" t="str">
+      <c r="L23" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -5826,9 +5824,9 @@
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="30" t="str">
+      <c r="L24" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -5873,9 +5871,9 @@
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="30" t="str">
+      <c r="L25" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -5920,9 +5918,9 @@
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="30" t="str">
+      <c r="L26" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -5967,9 +5965,9 @@
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="30" t="str">
+      <c r="L27" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -6014,9 +6012,9 @@
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="30" t="str">
+      <c r="L28" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -6061,9 +6059,9 @@
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="30" t="str">
+      <c r="L29" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -6108,9 +6106,9 @@
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="30" t="str">
+      <c r="L30" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -6155,9 +6153,9 @@
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="30" t="str">
+      <c r="L31" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -6202,9 +6200,9 @@
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="30" t="str">
+      <c r="L32" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -6249,9 +6247,9 @@
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="30" t="str">
+      <c r="L33" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -6296,9 +6294,9 @@
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="30" t="str">
+      <c r="L34" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -6343,9 +6341,9 @@
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="30" t="str">
+      <c r="L35" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -6390,9 +6388,9 @@
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="30" t="str">
+      <c r="L36" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M36" s="36"/>
     </row>
@@ -6487,12 +6485,12 @@
         <v>HKD_020_SwSB6L_Spr6L12L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6542,9 +6540,9 @@
         <f>_xll.qlForwardSwapQuote(J3,I3,H3,E3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="30" t="str">
+      <c r="L3" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -6607,9 +6605,9 @@
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L4" s="30" t="str">
+      <c r="L4" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -6672,9 +6670,9 @@
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L5" s="30" t="str">
+      <c r="L5" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -6737,9 +6735,9 @@
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L6" s="30" t="str">
+      <c r="L6" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -6802,9 +6800,9 @@
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L7" s="30" t="str">
+      <c r="L7" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -6867,9 +6865,9 @@
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L8" s="30" t="str">
+      <c r="L8" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -6914,9 +6912,9 @@
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L9" s="30" t="str">
+      <c r="L9" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -6961,9 +6959,9 @@
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="30" t="str">
+      <c r="L10" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -7008,9 +7006,9 @@
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -7055,9 +7053,9 @@
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L12" s="30" t="str">
+      <c r="L12" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -7102,9 +7100,9 @@
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="30" t="str">
+      <c r="L13" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -7149,9 +7147,9 @@
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L14" s="30" t="str">
+      <c r="L14" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -7196,9 +7194,9 @@
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L15" s="30" t="str">
+      <c r="L15" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -7243,9 +7241,9 @@
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="30" t="str">
+      <c r="L16" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -7290,9 +7288,9 @@
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="30" t="str">
+      <c r="L17" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -7337,9 +7335,9 @@
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L18" s="30" t="str">
+      <c r="L18" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -7384,9 +7382,9 @@
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L19" s="30" t="str">
+      <c r="L19" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -7431,9 +7429,9 @@
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -7478,9 +7476,9 @@
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -7525,9 +7523,9 @@
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L22" s="30" t="str">
+      <c r="L22" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -7572,9 +7570,9 @@
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="30" t="str">
+      <c r="L23" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -7619,9 +7617,9 @@
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="30" t="str">
+      <c r="L24" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -7666,9 +7664,9 @@
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="30" t="str">
+      <c r="L25" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -7713,9 +7711,9 @@
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="30" t="str">
+      <c r="L26" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -7760,9 +7758,9 @@
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="30" t="str">
+      <c r="L27" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -7807,9 +7805,9 @@
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="30" t="str">
+      <c r="L28" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -7854,9 +7852,9 @@
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="30" t="str">
+      <c r="L29" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -7901,9 +7899,9 @@
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="30" t="str">
+      <c r="L30" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -7948,9 +7946,9 @@
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="30" t="str">
+      <c r="L31" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -7995,9 +7993,9 @@
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="30" t="str">
+      <c r="L32" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -8042,9 +8040,9 @@
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="30" t="str">
+      <c r="L33" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -8089,9 +8087,9 @@
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="30" t="str">
+      <c r="L34" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -8136,9 +8134,9 @@
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="30" t="str">
+      <c r="L35" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -8183,9 +8181,9 @@
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="30" t="str">
+      <c r="L36" s="30" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="M36" s="36"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_020_ForwardSwapQuotes.xlsx
@@ -1101,7 +1101,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D8" s="12" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1361,12 +1361,12 @@
         <v>HKD_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="27" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L2" s="28" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="28" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - Object list is empty</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -3032,12 +3032,12 @@
         <v>HKD_020_SwSB6L_Fwd1w.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L2" s="43" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - Object list is empty</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4704,12 +4704,12 @@
         <v>HKD_020_SwSB3L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L2" s="43" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -4759,9 +4759,9 @@
         <f>_xll.qlForwardSwapQuote(J3,I3,H3,E3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="30" t="e">
+      <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -4820,9 +4820,9 @@
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L4" s="30" t="e">
+      <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -4885,9 +4885,9 @@
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L5" s="30" t="e">
+      <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -4946,9 +4946,9 @@
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L6" s="30" t="e">
+      <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -5007,9 +5007,9 @@
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L7" s="30" t="e">
+      <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -5072,9 +5072,9 @@
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L8" s="30" t="e">
+      <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -5119,9 +5119,9 @@
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L9" s="30" t="e">
+      <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -5166,9 +5166,9 @@
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="30" t="e">
+      <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -5213,9 +5213,9 @@
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L11" s="30" t="e">
+      <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -5260,9 +5260,9 @@
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L12" s="30" t="e">
+      <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -5307,9 +5307,9 @@
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="30" t="e">
+      <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -5354,9 +5354,9 @@
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L14" s="30" t="e">
+      <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -5401,9 +5401,9 @@
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L15" s="30" t="e">
+      <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -5448,9 +5448,9 @@
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="30" t="e">
+      <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -5495,9 +5495,9 @@
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="30" t="e">
+      <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -5542,9 +5542,9 @@
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L18" s="30" t="e">
+      <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -5589,9 +5589,9 @@
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L19" s="30" t="e">
+      <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -5636,9 +5636,9 @@
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L20" s="30" t="e">
+      <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -5683,9 +5683,9 @@
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="30" t="e">
+      <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -5730,9 +5730,9 @@
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L22" s="30" t="e">
+      <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -5777,9 +5777,9 @@
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="30" t="e">
+      <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -5824,9 +5824,9 @@
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="30" t="e">
+      <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -5871,9 +5871,9 @@
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="30" t="e">
+      <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -5918,9 +5918,9 @@
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="30" t="e">
+      <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -5965,9 +5965,9 @@
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="30" t="e">
+      <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -6012,9 +6012,9 @@
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="30" t="e">
+      <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -6059,9 +6059,9 @@
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="30" t="e">
+      <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -6106,9 +6106,9 @@
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="30" t="e">
+      <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -6153,9 +6153,9 @@
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="30" t="e">
+      <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -6200,9 +6200,9 @@
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="30" t="e">
+      <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -6247,9 +6247,9 @@
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="30" t="e">
+      <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -6294,9 +6294,9 @@
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="30" t="e">
+      <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -6341,9 +6341,9 @@
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="30" t="e">
+      <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -6388,9 +6388,9 @@
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="30" t="e">
+      <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
       </c>
       <c r="M36" s="36"/>
     </row>
@@ -6485,12 +6485,12 @@
         <v>HKD_020_SwSB6L_Spr6L12L.xml</v>
       </c>
       <c r="K2" s="42" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L2" s="43" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K36,SerializationPath&amp;J2,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="M2" s="36"/>
       <c r="O2" s="46"/>
@@ -6540,9 +6540,9 @@
         <f>_xll.qlForwardSwapQuote(J3,I3,H3,E3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="30" t="e">
+      <c r="L3" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K3)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc1Y'</v>
       </c>
       <c r="M3" s="36"/>
       <c r="O3" s="49" t="s">
@@ -6605,9 +6605,9 @@
         <f>_xll.qlForwardSwapQuote(J4,I4,H4,E4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L4" s="30" t="e">
+      <c r="L4" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K4)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc2Y'</v>
       </c>
       <c r="M4" s="36"/>
       <c r="O4" s="49" t="s">
@@ -6670,9 +6670,9 @@
         <f>_xll.qlForwardSwapQuote(J5,I5,H5,E5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L5" s="30" t="e">
+      <c r="L5" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K5)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc3Y'</v>
       </c>
       <c r="M5" s="36"/>
       <c r="O5" s="49" t="s">
@@ -6735,9 +6735,9 @@
         <f>_xll.qlForwardSwapQuote(J6,I6,H6,E6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L6" s="30" t="e">
+      <c r="L6" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K6)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc4Y'</v>
       </c>
       <c r="M6" s="36"/>
       <c r="O6" s="49" t="s">
@@ -6800,9 +6800,9 @@
         <f>_xll.qlForwardSwapQuote(J7,I7,H7,E7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L7" s="30" t="e">
+      <c r="L7" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K7)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc5Y'</v>
       </c>
       <c r="M7" s="36"/>
       <c r="O7" s="52" t="s">
@@ -6865,9 +6865,9 @@
         <f>_xll.qlForwardSwapQuote(J8,I8,H8,E8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L8" s="30" t="e">
+      <c r="L8" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K8)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc6Y'</v>
       </c>
       <c r="M8" s="36"/>
     </row>
@@ -6912,9 +6912,9 @@
         <f>_xll.qlForwardSwapQuote(J9,I9,H9,E9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L9" s="30" t="e">
+      <c r="L9" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K9)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc7Y'</v>
       </c>
       <c r="M9" s="36"/>
     </row>
@@ -6959,9 +6959,9 @@
         <f>_xll.qlForwardSwapQuote(J10,I10,H10,E10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="30" t="e">
+      <c r="L10" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K10)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc8Y'</v>
       </c>
       <c r="M10" s="36"/>
     </row>
@@ -7006,9 +7006,9 @@
         <f>_xll.qlForwardSwapQuote(J11,I11,H11,E11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L11" s="30" t="e">
+      <c r="L11" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K11)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc9Y'</v>
       </c>
       <c r="M11" s="36"/>
     </row>
@@ -7053,9 +7053,9 @@
         <f>_xll.qlForwardSwapQuote(J12,I12,H12,E12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L12" s="30" t="e">
+      <c r="L12" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K12)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc10Y'</v>
       </c>
       <c r="M12" s="36"/>
     </row>
@@ -7100,9 +7100,9 @@
         <f>_xll.qlForwardSwapQuote(J13,I13,H13,E13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="30" t="e">
+      <c r="L13" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K13)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc11Y'</v>
       </c>
       <c r="M13" s="36"/>
     </row>
@@ -7147,9 +7147,9 @@
         <f>_xll.qlForwardSwapQuote(J14,I14,H14,E14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L14" s="30" t="e">
+      <c r="L14" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K14)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc12Y'</v>
       </c>
       <c r="M14" s="36"/>
     </row>
@@ -7194,9 +7194,9 @@
         <f>_xll.qlForwardSwapQuote(J15,I15,H15,E15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L15" s="30" t="e">
+      <c r="L15" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K15)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc13Y'</v>
       </c>
       <c r="M15" s="36"/>
     </row>
@@ -7241,9 +7241,9 @@
         <f>_xll.qlForwardSwapQuote(J16,I16,H16,E16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="30" t="e">
+      <c r="L16" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K16)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc14Y'</v>
       </c>
       <c r="M16" s="36"/>
     </row>
@@ -7288,9 +7288,9 @@
         <f>_xll.qlForwardSwapQuote(J17,I17,H17,E17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="30" t="e">
+      <c r="L17" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K17)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc15Y'</v>
       </c>
       <c r="M17" s="36"/>
     </row>
@@ -7335,9 +7335,9 @@
         <f>_xll.qlForwardSwapQuote(J18,I18,H18,E18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L18" s="30" t="e">
+      <c r="L18" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K18)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc16Y'</v>
       </c>
       <c r="M18" s="36"/>
     </row>
@@ -7382,9 +7382,9 @@
         <f>_xll.qlForwardSwapQuote(J19,I19,H19,E19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L19" s="30" t="e">
+      <c r="L19" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K19)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc17Y'</v>
       </c>
       <c r="M19" s="36"/>
     </row>
@@ -7429,9 +7429,9 @@
         <f>_xll.qlForwardSwapQuote(J20,I20,H20,E20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L20" s="30" t="e">
+      <c r="L20" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K20)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc18Y'</v>
       </c>
       <c r="M20" s="36"/>
     </row>
@@ -7476,9 +7476,9 @@
         <f>_xll.qlForwardSwapQuote(J21,I21,H21,E21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L21" s="30" t="e">
+      <c r="L21" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K21)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc19Y'</v>
       </c>
       <c r="M21" s="36"/>
     </row>
@@ -7523,9 +7523,9 @@
         <f>_xll.qlForwardSwapQuote(J22,I22,H22,E22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L22" s="30" t="e">
+      <c r="L22" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K22)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc20Y'</v>
       </c>
       <c r="M22" s="36"/>
     </row>
@@ -7570,9 +7570,9 @@
         <f>_xll.qlForwardSwapQuote(J23,I23,H23,E23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L23" s="30" t="e">
+      <c r="L23" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K23)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc21Y'</v>
       </c>
       <c r="M23" s="36"/>
     </row>
@@ -7617,9 +7617,9 @@
         <f>_xll.qlForwardSwapQuote(J24,I24,H24,E24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L24" s="30" t="e">
+      <c r="L24" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K24)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc22Y'</v>
       </c>
       <c r="M24" s="36"/>
     </row>
@@ -7664,9 +7664,9 @@
         <f>_xll.qlForwardSwapQuote(J25,I25,H25,E25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="30" t="e">
+      <c r="L25" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K25)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc23Y'</v>
       </c>
       <c r="M25" s="36"/>
     </row>
@@ -7711,9 +7711,9 @@
         <f>_xll.qlForwardSwapQuote(J26,I26,H26,E26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="30" t="e">
+      <c r="L26" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K26)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc24Y'</v>
       </c>
       <c r="M26" s="36"/>
     </row>
@@ -7758,9 +7758,9 @@
         <f>_xll.qlForwardSwapQuote(J27,I27,H27,E27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L27" s="30" t="e">
+      <c r="L27" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K27)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc25Y'</v>
       </c>
       <c r="M27" s="36"/>
     </row>
@@ -7805,9 +7805,9 @@
         <f>_xll.qlForwardSwapQuote(J28,I28,H28,E28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L28" s="30" t="e">
+      <c r="L28" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K28)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc26Y'</v>
       </c>
       <c r="M28" s="36"/>
     </row>
@@ -7852,9 +7852,9 @@
         <f>_xll.qlForwardSwapQuote(J29,I29,H29,E29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L29" s="30" t="e">
+      <c r="L29" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K29)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc27Y'</v>
       </c>
       <c r="M29" s="36"/>
     </row>
@@ -7899,9 +7899,9 @@
         <f>_xll.qlForwardSwapQuote(J30,I30,H30,E30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L30" s="30" t="e">
+      <c r="L30" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K30)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc28Y'</v>
       </c>
       <c r="M30" s="36"/>
     </row>
@@ -7946,9 +7946,9 @@
         <f>_xll.qlForwardSwapQuote(J31,I31,H31,E31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L31" s="30" t="e">
+      <c r="L31" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K31)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc29Y'</v>
       </c>
       <c r="M31" s="36"/>
     </row>
@@ -7993,9 +7993,9 @@
         <f>_xll.qlForwardSwapQuote(J32,I32,H32,E32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L32" s="30" t="e">
+      <c r="L32" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K32)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc30Y'</v>
       </c>
       <c r="M32" s="36"/>
     </row>
@@ -8040,9 +8040,9 @@
         <f>_xll.qlForwardSwapQuote(J33,I33,H33,E33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="30" t="e">
+      <c r="L33" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K33)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc35Y'</v>
       </c>
       <c r="M33" s="36"/>
     </row>
@@ -8087,9 +8087,9 @@
         <f>_xll.qlForwardSwapQuote(J34,I34,H34,E34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L34" s="30" t="e">
+      <c r="L34" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K34)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc40Y'</v>
       </c>
       <c r="M34" s="36"/>
     </row>
@@ -8134,9 +8134,9 @@
         <f>_xll.qlForwardSwapQuote(J35,I35,H35,E35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="30" t="e">
+      <c r="L35" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K35)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc50Y'</v>
       </c>
       <c r="M35" s="36"/>
     </row>
@@ -8181,9 +8181,9 @@
         <f>_xll.qlForwardSwapQuote(J36,I36,H36,E36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L36" s="30" t="e">
+      <c r="L36" s="30" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K36)</f>
-        <v>#NAME?</v>
+        <v>qlForwardSwapQuote - ObjectHandler error: attempt to retrieve object with unknown ID 'HkdHiborSwapForBasisCalc60Y'</v>
       </c>
       <c r="M36" s="36"/>
     </row>
